--- a/Muscle enzyme stats summary.xlsx
+++ b/Muscle enzyme stats summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mcmasteru365-my.sharepoint.com/personal/garree2_mcmaster_ca/Documents/MSc documents/MSc R stuff/Team-Deer-Mouse/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mcmasteru365-my.sharepoint.com/personal/garree2_mcmaster_ca/Documents/MSc documents/MSc R stuff/TeamDeerMouse2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3173" documentId="8_{007E6532-BBA8-40E2-86B1-B300A58E7FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F63CF69A-A5CE-4441-A1D2-D037EBF5BE23}"/>
+  <xr:revisionPtr revIDLastSave="3216" documentId="8_{007E6532-BBA8-40E2-86B1-B300A58E7FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97700395-0C07-4B82-AF23-35FC18AE2308}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{552A0E64-C64A-4B8B-8A72-60951C1B8927}"/>
+    <workbookView xWindow="6660" yWindow="60" windowWidth="13692" windowHeight="11112" activeTab="1" xr2:uid="{552A0E64-C64A-4B8B-8A72-60951C1B8927}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats summary (good copy)" sheetId="3" r:id="rId1"/>
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="200">
   <si>
     <t xml:space="preserve">Muscle </t>
   </si>
@@ -674,6 +674,75 @@
   <si>
     <t>**only showin masses for intact muscles - partially removed muscles not included</t>
   </si>
+  <si>
+    <t>Top 10 Variables and their contributions to PC1 and PC2</t>
+  </si>
+  <si>
+    <t>Contrib. PC1</t>
+  </si>
+  <si>
+    <t>Contrib. PC2</t>
+  </si>
+  <si>
+    <t>hoadglutmax</t>
+  </si>
+  <si>
+    <t>hkplantaris</t>
+  </si>
+  <si>
+    <t>csgastroc</t>
+  </si>
+  <si>
+    <t>hkrecfem</t>
+  </si>
+  <si>
+    <t>coxrecfem</t>
+  </si>
+  <si>
+    <t>csrecfem</t>
+  </si>
+  <si>
+    <t>hkglutmax</t>
+  </si>
+  <si>
+    <t>hoadplantaris</t>
+  </si>
+  <si>
+    <t>csvmed</t>
+  </si>
+  <si>
+    <t>hoadvmed</t>
+  </si>
+  <si>
+    <t>ldhsoleus</t>
+  </si>
+  <si>
+    <t>pksoleus</t>
+  </si>
+  <si>
+    <t>pkta</t>
+  </si>
+  <si>
+    <t>csta</t>
+  </si>
+  <si>
+    <t>ldhedl</t>
+  </si>
+  <si>
+    <t>coxmedtrap</t>
+  </si>
+  <si>
+    <t>hoadmedtrap</t>
+  </si>
+  <si>
+    <t>ldhpecmajor</t>
+  </si>
+  <si>
+    <t>hkmedtrap</t>
+  </si>
+  <si>
+    <t>ldhta</t>
+  </si>
 </sst>
 </file>
 
@@ -920,7 +989,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -948,10 +1017,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -964,12 +1060,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1020,36 +1110,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1409,7 +1479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEC4BBFB-1F47-4F42-82E8-48C18D6873D8}">
   <dimension ref="A1:DG260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="87" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="87" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="U29" sqref="U29"/>
     </sheetView>
@@ -12064,13 +12134,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D40758C-E7D9-48C2-9004-9B7BB4406C8B}">
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:U5"/>
+    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="11" max="11" width="10.88671875" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="13" max="13" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -12447,6 +12519,9 @@
       <c r="I8">
         <v>-3.8849999999999998</v>
       </c>
+      <c r="K8" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -12476,6 +12551,12 @@
       <c r="I9">
         <v>0.36699999999999999</v>
       </c>
+      <c r="K9" t="s">
+        <v>178</v>
+      </c>
+      <c r="L9" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -12505,6 +12586,12 @@
       <c r="I10">
         <v>2.073</v>
       </c>
+      <c r="K10" t="s">
+        <v>180</v>
+      </c>
+      <c r="L10" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -12534,6 +12621,12 @@
       <c r="I11">
         <v>-8.8999999999999996E-2</v>
       </c>
+      <c r="K11" t="s">
+        <v>181</v>
+      </c>
+      <c r="L11" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -12563,6 +12656,12 @@
       <c r="I12">
         <v>1.7669999999999999</v>
       </c>
+      <c r="K12" t="s">
+        <v>182</v>
+      </c>
+      <c r="L12" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -12592,6 +12691,12 @@
       <c r="I13">
         <v>2.6110000000000002</v>
       </c>
+      <c r="K13" t="s">
+        <v>183</v>
+      </c>
+      <c r="L13" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -12621,6 +12726,12 @@
       <c r="I14">
         <v>-1.113</v>
       </c>
+      <c r="K14" t="s">
+        <v>184</v>
+      </c>
+      <c r="L14" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -12650,6 +12761,12 @@
       <c r="I15">
         <v>-0.83299999999999996</v>
       </c>
+      <c r="K15" t="s">
+        <v>185</v>
+      </c>
+      <c r="L15" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -12679,8 +12796,14 @@
       <c r="I16">
         <v>1.762</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K16" t="s">
+        <v>186</v>
+      </c>
+      <c r="L16" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>124</v>
       </c>
@@ -12708,8 +12831,14 @@
       <c r="I17">
         <v>3.5649999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K17" t="s">
+        <v>187</v>
+      </c>
+      <c r="L17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>125</v>
       </c>
@@ -12737,8 +12866,14 @@
       <c r="I18">
         <v>2.5409999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K18" t="s">
+        <v>188</v>
+      </c>
+      <c r="L18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>126</v>
       </c>
@@ -12766,8 +12901,14 @@
       <c r="I19">
         <v>-0.39200000000000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K19" t="s">
+        <v>189</v>
+      </c>
+      <c r="L19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>127</v>
       </c>
@@ -12796,7 +12937,7 @@
         <v>5.0739999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>128</v>
       </c>
@@ -12825,7 +12966,7 @@
         <v>1.444</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>129</v>
       </c>
@@ -12854,7 +12995,7 @@
         <v>-3.1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>130</v>
       </c>
@@ -12883,7 +13024,7 @@
         <v>-2.3889999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>131</v>
       </c>
@@ -12912,7 +13053,7 @@
         <v>-7.431</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>132</v>
       </c>
@@ -12940,6 +13081,7 @@
       <c r="I25">
         <v>-3.754</v>
       </c>
+      <c r="M25" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -15509,333 +15651,333 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47" t="s">
+      <c r="E1" s="26"/>
+      <c r="F1" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47" t="s">
+      <c r="G1" s="26"/>
+      <c r="H1" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="47"/>
+      <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="48" t="s">
+      <c r="C4" s="24"/>
+      <c r="D4" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="48" t="s">
+      <c r="E4" s="24"/>
+      <c r="F4" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="49"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="M6" s="45" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="M6" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="N6" s="46"/>
+      <c r="N6" s="21"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="48" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="48" t="s">
+      <c r="E7" s="24"/>
+      <c r="F7" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="49"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="M7" s="45" t="s">
+      <c r="G7" s="24"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="M7" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="N7" s="46"/>
+      <c r="N7" s="21"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="48" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="49"/>
-      <c r="F8" s="48" t="s">
+      <c r="E8" s="24"/>
+      <c r="F8" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="49"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="M8" s="45" t="s">
+      <c r="G8" s="24"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="M8" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="N8" s="46"/>
+      <c r="N8" s="21"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="48" t="s">
+      <c r="C10" s="24"/>
+      <c r="D10" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="48" t="s">
+      <c r="C13" s="24"/>
+      <c r="D13" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="49"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="50" t="s">
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="51"/>
-      <c r="H19" s="50" t="s">
+      <c r="G19" s="28"/>
+      <c r="H19" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="I19" s="51"/>
+      <c r="I19" s="28"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47" t="s">
+      <c r="C24" s="26"/>
+      <c r="D24" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47" t="s">
+      <c r="E24" s="26"/>
+      <c r="F24" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47" t="s">
+      <c r="G24" s="26"/>
+      <c r="H24" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="I24" s="47"/>
+      <c r="I24" s="26"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="47"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -15847,38 +15989,38 @@
       <c r="C26" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="52"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="52"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -15890,122 +16032,122 @@
       <c r="C29" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="52"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="48" t="s">
+      <c r="B33" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="49"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="50" t="s">
+      <c r="B35" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="52"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="48" t="s">
+      <c r="B37" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="49"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
@@ -16017,104 +16159,104 @@
       <c r="C38" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="53"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="52"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>58</v>
       </c>
-      <c r="B41" s="53"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="49" t="s">
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E41" s="49"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>59</v>
       </c>
-      <c r="B42" s="53"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="48" t="s">
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="E42" s="49"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="53"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="22"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A45" s="47" t="s">
+      <c r="A45" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B45" s="47" t="s">
+      <c r="B45" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47" t="s">
+      <c r="C45" s="26"/>
+      <c r="D45" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47" t="s">
+      <c r="E45" s="26"/>
+      <c r="F45" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="G45" s="47"/>
-      <c r="H45" s="47" t="s">
+      <c r="G45" s="26"/>
+      <c r="H45" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="I45" s="47"/>
-      <c r="L45" s="47" t="s">
+      <c r="I45" s="26"/>
+      <c r="L45" s="26" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A46" s="47"/>
-      <c r="B46" s="47"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="47"/>
-      <c r="I46" s="47"/>
-      <c r="L46" s="47"/>
+      <c r="A46" s="26"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="L46" s="26"/>
     </row>
     <row r="47" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
@@ -16126,592 +16268,798 @@
       <c r="C47" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="46"/>
-      <c r="K47" s="41" t="s">
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="K47" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="L47" s="42"/>
-      <c r="M47" s="29" t="s">
+      <c r="L47" s="49"/>
+      <c r="M47" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="N47" s="30"/>
-      <c r="O47" s="30"/>
-      <c r="P47" s="30"/>
-      <c r="Q47" s="30"/>
-      <c r="R47" s="30"/>
-      <c r="S47" s="30"/>
-      <c r="T47" s="30"/>
-      <c r="U47" s="30"/>
-      <c r="V47" s="30"/>
-      <c r="W47" s="30"/>
-      <c r="X47" s="31"/>
+      <c r="N47" s="37"/>
+      <c r="O47" s="37"/>
+      <c r="P47" s="37"/>
+      <c r="Q47" s="37"/>
+      <c r="R47" s="37"/>
+      <c r="S47" s="37"/>
+      <c r="T47" s="37"/>
+      <c r="U47" s="37"/>
+      <c r="V47" s="37"/>
+      <c r="W47" s="37"/>
+      <c r="X47" s="38"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="52"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="46"/>
-      <c r="I48" s="46"/>
-      <c r="K48" s="43" t="s">
+      <c r="B48" s="25"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="K48" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="L48" s="44"/>
-      <c r="M48" s="32"/>
-      <c r="N48" s="33"/>
-      <c r="O48" s="33"/>
-      <c r="P48" s="33"/>
-      <c r="Q48" s="33"/>
-      <c r="R48" s="33"/>
-      <c r="S48" s="33"/>
-      <c r="T48" s="33"/>
-      <c r="U48" s="33"/>
-      <c r="V48" s="33"/>
-      <c r="W48" s="33"/>
-      <c r="X48" s="34"/>
+      <c r="L48" s="51"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="40"/>
+      <c r="O48" s="40"/>
+      <c r="P48" s="40"/>
+      <c r="Q48" s="40"/>
+      <c r="R48" s="40"/>
+      <c r="S48" s="40"/>
+      <c r="T48" s="40"/>
+      <c r="U48" s="40"/>
+      <c r="V48" s="40"/>
+      <c r="W48" s="40"/>
+      <c r="X48" s="41"/>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>41</v>
       </c>
-      <c r="B49" s="53"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="46"/>
-      <c r="H49" s="46"/>
-      <c r="I49" s="46"/>
-      <c r="K49" s="23" t="s">
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="K49" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="L49" s="24"/>
-      <c r="M49" s="29" t="s">
+      <c r="L49" s="33"/>
+      <c r="M49" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="N49" s="30"/>
-      <c r="O49" s="30"/>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="30"/>
-      <c r="R49" s="30"/>
-      <c r="S49" s="30"/>
-      <c r="T49" s="30"/>
-      <c r="U49" s="30"/>
-      <c r="V49" s="30"/>
-      <c r="W49" s="30"/>
-      <c r="X49" s="31"/>
+      <c r="N49" s="37"/>
+      <c r="O49" s="37"/>
+      <c r="P49" s="37"/>
+      <c r="Q49" s="37"/>
+      <c r="R49" s="37"/>
+      <c r="S49" s="37"/>
+      <c r="T49" s="37"/>
+      <c r="U49" s="37"/>
+      <c r="V49" s="37"/>
+      <c r="W49" s="37"/>
+      <c r="X49" s="38"/>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="53"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="46"/>
-      <c r="I50" s="46"/>
-      <c r="K50" s="25" t="s">
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="K50" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="L50" s="26"/>
-      <c r="M50" s="35"/>
-      <c r="N50" s="36"/>
-      <c r="O50" s="36"/>
-      <c r="P50" s="36"/>
-      <c r="Q50" s="36"/>
-      <c r="R50" s="36"/>
-      <c r="S50" s="36"/>
-      <c r="T50" s="36"/>
-      <c r="U50" s="36"/>
-      <c r="V50" s="36"/>
-      <c r="W50" s="36"/>
-      <c r="X50" s="37"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="42"/>
+      <c r="N50" s="43"/>
+      <c r="O50" s="43"/>
+      <c r="P50" s="43"/>
+      <c r="Q50" s="43"/>
+      <c r="R50" s="43"/>
+      <c r="S50" s="43"/>
+      <c r="T50" s="43"/>
+      <c r="U50" s="43"/>
+      <c r="V50" s="43"/>
+      <c r="W50" s="43"/>
+      <c r="X50" s="44"/>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="52"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="46"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="46"/>
-      <c r="I51" s="46"/>
-      <c r="K51" s="27" t="s">
+      <c r="B51" s="25"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="K51" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="L51" s="28"/>
-      <c r="M51" s="32"/>
-      <c r="N51" s="33"/>
-      <c r="O51" s="33"/>
-      <c r="P51" s="33"/>
-      <c r="Q51" s="33"/>
-      <c r="R51" s="33"/>
-      <c r="S51" s="33"/>
-      <c r="T51" s="33"/>
-      <c r="U51" s="33"/>
-      <c r="V51" s="33"/>
-      <c r="W51" s="33"/>
-      <c r="X51" s="34"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="40"/>
+      <c r="O51" s="40"/>
+      <c r="P51" s="40"/>
+      <c r="Q51" s="40"/>
+      <c r="R51" s="40"/>
+      <c r="S51" s="40"/>
+      <c r="T51" s="40"/>
+      <c r="U51" s="40"/>
+      <c r="V51" s="40"/>
+      <c r="W51" s="40"/>
+      <c r="X51" s="41"/>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>33</v>
       </c>
-      <c r="B52" s="52"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="46"/>
-      <c r="G52" s="46"/>
-      <c r="H52" s="46"/>
-      <c r="I52" s="46"/>
-      <c r="K52" s="21" t="s">
+      <c r="B52" s="25"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="K52" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="L52" s="22"/>
-      <c r="M52" s="38" t="s">
+      <c r="L52" s="53"/>
+      <c r="M52" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="N52" s="39"/>
-      <c r="O52" s="39"/>
-      <c r="P52" s="39"/>
-      <c r="Q52" s="39"/>
-      <c r="R52" s="39"/>
-      <c r="S52" s="39"/>
-      <c r="T52" s="39"/>
-      <c r="U52" s="39"/>
-      <c r="V52" s="39"/>
-      <c r="W52" s="39"/>
-      <c r="X52" s="40"/>
+      <c r="N52" s="46"/>
+      <c r="O52" s="46"/>
+      <c r="P52" s="46"/>
+      <c r="Q52" s="46"/>
+      <c r="R52" s="46"/>
+      <c r="S52" s="46"/>
+      <c r="T52" s="46"/>
+      <c r="U52" s="46"/>
+      <c r="V52" s="46"/>
+      <c r="W52" s="46"/>
+      <c r="X52" s="47"/>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>43</v>
       </c>
-      <c r="B53" s="53"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="53"/>
-      <c r="E53" s="53"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="46"/>
-      <c r="H53" s="46"/>
-      <c r="I53" s="46"/>
-      <c r="K53" s="23" t="s">
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="K53" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="L53" s="24"/>
-      <c r="M53" s="29" t="s">
+      <c r="L53" s="33"/>
+      <c r="M53" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="N53" s="30"/>
-      <c r="O53" s="30"/>
-      <c r="P53" s="30"/>
-      <c r="Q53" s="30"/>
-      <c r="R53" s="30"/>
-      <c r="S53" s="30"/>
-      <c r="T53" s="30"/>
-      <c r="U53" s="30"/>
-      <c r="V53" s="30"/>
-      <c r="W53" s="30"/>
-      <c r="X53" s="31"/>
+      <c r="N53" s="37"/>
+      <c r="O53" s="37"/>
+      <c r="P53" s="37"/>
+      <c r="Q53" s="37"/>
+      <c r="R53" s="37"/>
+      <c r="S53" s="37"/>
+      <c r="T53" s="37"/>
+      <c r="U53" s="37"/>
+      <c r="V53" s="37"/>
+      <c r="W53" s="37"/>
+      <c r="X53" s="38"/>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="48" t="s">
+      <c r="B54" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C54" s="49"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="46"/>
-      <c r="G54" s="46"/>
-      <c r="H54" s="46"/>
-      <c r="I54" s="46"/>
-      <c r="K54" s="25" t="s">
+      <c r="C54" s="24"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="K54" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="L54" s="26"/>
-      <c r="M54" s="35"/>
-      <c r="N54" s="36"/>
-      <c r="O54" s="36"/>
-      <c r="P54" s="36"/>
-      <c r="Q54" s="36"/>
-      <c r="R54" s="36"/>
-      <c r="S54" s="36"/>
-      <c r="T54" s="36"/>
-      <c r="U54" s="36"/>
-      <c r="V54" s="36"/>
-      <c r="W54" s="36"/>
-      <c r="X54" s="37"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="42"/>
+      <c r="N54" s="43"/>
+      <c r="O54" s="43"/>
+      <c r="P54" s="43"/>
+      <c r="Q54" s="43"/>
+      <c r="R54" s="43"/>
+      <c r="S54" s="43"/>
+      <c r="T54" s="43"/>
+      <c r="U54" s="43"/>
+      <c r="V54" s="43"/>
+      <c r="W54" s="43"/>
+      <c r="X54" s="44"/>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>37</v>
       </c>
-      <c r="B55" s="53"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="53"/>
-      <c r="F55" s="46"/>
-      <c r="G55" s="46"/>
-      <c r="H55" s="46"/>
-      <c r="I55" s="46"/>
-      <c r="K55" s="27" t="s">
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="K55" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="L55" s="28"/>
-      <c r="M55" s="32"/>
-      <c r="N55" s="33"/>
-      <c r="O55" s="33"/>
-      <c r="P55" s="33"/>
-      <c r="Q55" s="33"/>
-      <c r="R55" s="33"/>
-      <c r="S55" s="33"/>
-      <c r="T55" s="33"/>
-      <c r="U55" s="33"/>
-      <c r="V55" s="33"/>
-      <c r="W55" s="33"/>
-      <c r="X55" s="34"/>
+      <c r="L55" s="31"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="40"/>
+      <c r="O55" s="40"/>
+      <c r="P55" s="40"/>
+      <c r="Q55" s="40"/>
+      <c r="R55" s="40"/>
+      <c r="S55" s="40"/>
+      <c r="T55" s="40"/>
+      <c r="U55" s="40"/>
+      <c r="V55" s="40"/>
+      <c r="W55" s="40"/>
+      <c r="X55" s="41"/>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>32</v>
       </c>
-      <c r="B56" s="53"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="46"/>
-      <c r="G56" s="46"/>
-      <c r="H56" s="46"/>
-      <c r="I56" s="46"/>
-      <c r="K56" s="23" t="s">
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="K56" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="L56" s="24"/>
-      <c r="M56" s="29" t="s">
+      <c r="L56" s="33"/>
+      <c r="M56" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="N56" s="30"/>
-      <c r="O56" s="30"/>
-      <c r="P56" s="30"/>
-      <c r="Q56" s="30"/>
-      <c r="R56" s="30"/>
-      <c r="S56" s="30"/>
-      <c r="T56" s="30"/>
-      <c r="U56" s="30"/>
-      <c r="V56" s="30"/>
-      <c r="W56" s="30"/>
-      <c r="X56" s="31"/>
+      <c r="N56" s="37"/>
+      <c r="O56" s="37"/>
+      <c r="P56" s="37"/>
+      <c r="Q56" s="37"/>
+      <c r="R56" s="37"/>
+      <c r="S56" s="37"/>
+      <c r="T56" s="37"/>
+      <c r="U56" s="37"/>
+      <c r="V56" s="37"/>
+      <c r="W56" s="37"/>
+      <c r="X56" s="38"/>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="53"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="53"/>
-      <c r="E57" s="53"/>
-      <c r="F57" s="46"/>
-      <c r="G57" s="46"/>
-      <c r="H57" s="46"/>
-      <c r="I57" s="46"/>
-      <c r="K57" s="27" t="s">
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="K57" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="L57" s="28"/>
-      <c r="M57" s="32"/>
-      <c r="N57" s="33"/>
-      <c r="O57" s="33"/>
-      <c r="P57" s="33"/>
-      <c r="Q57" s="33"/>
-      <c r="R57" s="33"/>
-      <c r="S57" s="33"/>
-      <c r="T57" s="33"/>
-      <c r="U57" s="33"/>
-      <c r="V57" s="33"/>
-      <c r="W57" s="33"/>
-      <c r="X57" s="34"/>
+      <c r="L57" s="31"/>
+      <c r="M57" s="39"/>
+      <c r="N57" s="40"/>
+      <c r="O57" s="40"/>
+      <c r="P57" s="40"/>
+      <c r="Q57" s="40"/>
+      <c r="R57" s="40"/>
+      <c r="S57" s="40"/>
+      <c r="T57" s="40"/>
+      <c r="U57" s="40"/>
+      <c r="V57" s="40"/>
+      <c r="W57" s="40"/>
+      <c r="X57" s="41"/>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>4</v>
       </c>
-      <c r="B58" s="48" t="s">
+      <c r="B58" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C58" s="49"/>
-      <c r="D58" s="53"/>
-      <c r="E58" s="53"/>
-      <c r="F58" s="46"/>
-      <c r="G58" s="46"/>
-      <c r="H58" s="46"/>
-      <c r="I58" s="46"/>
-      <c r="K58" s="21" t="s">
+      <c r="C58" s="24"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="K58" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="L58" s="22"/>
-      <c r="M58" s="32" t="s">
+      <c r="L58" s="53"/>
+      <c r="M58" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="N58" s="33"/>
-      <c r="O58" s="33"/>
-      <c r="P58" s="33"/>
-      <c r="Q58" s="33"/>
-      <c r="R58" s="33"/>
-      <c r="S58" s="33"/>
-      <c r="T58" s="33"/>
-      <c r="U58" s="33"/>
-      <c r="V58" s="33"/>
-      <c r="W58" s="33"/>
-      <c r="X58" s="34"/>
+      <c r="N58" s="40"/>
+      <c r="O58" s="40"/>
+      <c r="P58" s="40"/>
+      <c r="Q58" s="40"/>
+      <c r="R58" s="40"/>
+      <c r="S58" s="40"/>
+      <c r="T58" s="40"/>
+      <c r="U58" s="40"/>
+      <c r="V58" s="40"/>
+      <c r="W58" s="40"/>
+      <c r="X58" s="41"/>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>55</v>
       </c>
-      <c r="B59" s="53"/>
-      <c r="C59" s="53"/>
-      <c r="D59" s="53"/>
-      <c r="E59" s="53"/>
-      <c r="F59" s="46"/>
-      <c r="G59" s="46"/>
-      <c r="H59" s="46"/>
-      <c r="I59" s="46"/>
-      <c r="K59" s="23" t="s">
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="K59" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="L59" s="24"/>
-      <c r="M59" s="29" t="s">
+      <c r="L59" s="33"/>
+      <c r="M59" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="N59" s="30"/>
-      <c r="O59" s="30"/>
-      <c r="P59" s="30"/>
-      <c r="Q59" s="30"/>
-      <c r="R59" s="30"/>
-      <c r="S59" s="30"/>
-      <c r="T59" s="30"/>
-      <c r="U59" s="30"/>
-      <c r="V59" s="30"/>
-      <c r="W59" s="30"/>
-      <c r="X59" s="31"/>
+      <c r="N59" s="37"/>
+      <c r="O59" s="37"/>
+      <c r="P59" s="37"/>
+      <c r="Q59" s="37"/>
+      <c r="R59" s="37"/>
+      <c r="S59" s="37"/>
+      <c r="T59" s="37"/>
+      <c r="U59" s="37"/>
+      <c r="V59" s="37"/>
+      <c r="W59" s="37"/>
+      <c r="X59" s="38"/>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>56</v>
       </c>
-      <c r="B60" s="53"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="53"/>
-      <c r="E60" s="53"/>
-      <c r="F60" s="46"/>
-      <c r="G60" s="46"/>
-      <c r="H60" s="46"/>
-      <c r="I60" s="46"/>
-      <c r="K60" s="27" t="s">
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+      <c r="K60" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="L60" s="28"/>
-      <c r="M60" s="32" t="s">
+      <c r="L60" s="31"/>
+      <c r="M60" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="N60" s="33"/>
-      <c r="O60" s="33"/>
-      <c r="P60" s="33"/>
-      <c r="Q60" s="33"/>
-      <c r="R60" s="33"/>
-      <c r="S60" s="33"/>
-      <c r="T60" s="33"/>
-      <c r="U60" s="33"/>
-      <c r="V60" s="33"/>
-      <c r="W60" s="33"/>
-      <c r="X60" s="34"/>
+      <c r="N60" s="40"/>
+      <c r="O60" s="40"/>
+      <c r="P60" s="40"/>
+      <c r="Q60" s="40"/>
+      <c r="R60" s="40"/>
+      <c r="S60" s="40"/>
+      <c r="T60" s="40"/>
+      <c r="U60" s="40"/>
+      <c r="V60" s="40"/>
+      <c r="W60" s="40"/>
+      <c r="X60" s="41"/>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>57</v>
       </c>
-      <c r="B61" s="53"/>
-      <c r="C61" s="53"/>
-      <c r="D61" s="53"/>
-      <c r="E61" s="53"/>
-      <c r="F61" s="46"/>
-      <c r="G61" s="46"/>
-      <c r="H61" s="46"/>
-      <c r="I61" s="46"/>
-      <c r="K61" s="23" t="s">
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="K61" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="L61" s="24"/>
-      <c r="M61" s="29" t="s">
+      <c r="L61" s="33"/>
+      <c r="M61" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="N61" s="30"/>
-      <c r="O61" s="30"/>
-      <c r="P61" s="30"/>
-      <c r="Q61" s="30"/>
-      <c r="R61" s="30"/>
-      <c r="S61" s="30"/>
-      <c r="T61" s="30"/>
-      <c r="U61" s="30"/>
-      <c r="V61" s="30"/>
-      <c r="W61" s="30"/>
-      <c r="X61" s="31"/>
+      <c r="N61" s="37"/>
+      <c r="O61" s="37"/>
+      <c r="P61" s="37"/>
+      <c r="Q61" s="37"/>
+      <c r="R61" s="37"/>
+      <c r="S61" s="37"/>
+      <c r="T61" s="37"/>
+      <c r="U61" s="37"/>
+      <c r="V61" s="37"/>
+      <c r="W61" s="37"/>
+      <c r="X61" s="38"/>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>58</v>
       </c>
-      <c r="B62" s="53"/>
-      <c r="C62" s="53"/>
-      <c r="D62" s="53"/>
-      <c r="E62" s="53"/>
-      <c r="F62" s="46"/>
-      <c r="G62" s="46"/>
-      <c r="H62" s="46"/>
-      <c r="I62" s="46"/>
-      <c r="K62" s="27" t="s">
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="21"/>
+      <c r="K62" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="L62" s="28"/>
-      <c r="M62" s="32"/>
-      <c r="N62" s="33"/>
-      <c r="O62" s="33"/>
-      <c r="P62" s="33"/>
-      <c r="Q62" s="33"/>
-      <c r="R62" s="33"/>
-      <c r="S62" s="33"/>
-      <c r="T62" s="33"/>
-      <c r="U62" s="33"/>
-      <c r="V62" s="33"/>
-      <c r="W62" s="33"/>
-      <c r="X62" s="34"/>
+      <c r="L62" s="31"/>
+      <c r="M62" s="39"/>
+      <c r="N62" s="40"/>
+      <c r="O62" s="40"/>
+      <c r="P62" s="40"/>
+      <c r="Q62" s="40"/>
+      <c r="R62" s="40"/>
+      <c r="S62" s="40"/>
+      <c r="T62" s="40"/>
+      <c r="U62" s="40"/>
+      <c r="V62" s="40"/>
+      <c r="W62" s="40"/>
+      <c r="X62" s="41"/>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>59</v>
       </c>
-      <c r="B63" s="53"/>
-      <c r="C63" s="53"/>
-      <c r="D63" s="48" t="s">
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="E63" s="49"/>
-      <c r="F63" s="52"/>
-      <c r="G63" s="53"/>
-      <c r="H63" s="52"/>
-      <c r="I63" s="53"/>
-      <c r="K63" s="23" t="s">
+      <c r="E63" s="24"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="22"/>
+      <c r="K63" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="L63" s="24"/>
-      <c r="M63" s="38" t="s">
+      <c r="L63" s="33"/>
+      <c r="M63" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="N63" s="39"/>
-      <c r="O63" s="39"/>
-      <c r="P63" s="39"/>
-      <c r="Q63" s="39"/>
-      <c r="R63" s="39"/>
-      <c r="S63" s="39"/>
-      <c r="T63" s="39"/>
-      <c r="U63" s="39"/>
-      <c r="V63" s="39"/>
-      <c r="W63" s="39"/>
-      <c r="X63" s="40"/>
+      <c r="N63" s="46"/>
+      <c r="O63" s="46"/>
+      <c r="P63" s="46"/>
+      <c r="Q63" s="46"/>
+      <c r="R63" s="46"/>
+      <c r="S63" s="46"/>
+      <c r="T63" s="46"/>
+      <c r="U63" s="46"/>
+      <c r="V63" s="46"/>
+      <c r="W63" s="46"/>
+      <c r="X63" s="47"/>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="K64" s="23" t="s">
+      <c r="K64" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="L64" s="24"/>
-      <c r="M64" s="30" t="s">
+      <c r="L64" s="33"/>
+      <c r="M64" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="N64" s="30"/>
-      <c r="O64" s="30"/>
-      <c r="P64" s="30"/>
-      <c r="Q64" s="30"/>
-      <c r="R64" s="30"/>
-      <c r="S64" s="30"/>
-      <c r="T64" s="30"/>
-      <c r="U64" s="30"/>
-      <c r="V64" s="30"/>
-      <c r="W64" s="30"/>
-      <c r="X64" s="31"/>
+      <c r="N64" s="37"/>
+      <c r="O64" s="37"/>
+      <c r="P64" s="37"/>
+      <c r="Q64" s="37"/>
+      <c r="R64" s="37"/>
+      <c r="S64" s="37"/>
+      <c r="T64" s="37"/>
+      <c r="U64" s="37"/>
+      <c r="V64" s="37"/>
+      <c r="W64" s="37"/>
+      <c r="X64" s="38"/>
     </row>
     <row r="65" spans="11:24" x14ac:dyDescent="0.3">
-      <c r="K65" s="25" t="s">
+      <c r="K65" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="L65" s="26"/>
-      <c r="M65" s="33" t="s">
+      <c r="L65" s="35"/>
+      <c r="M65" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="N65" s="33"/>
-      <c r="O65" s="33"/>
-      <c r="P65" s="33"/>
-      <c r="Q65" s="33"/>
-      <c r="R65" s="33"/>
-      <c r="S65" s="33"/>
-      <c r="T65" s="33"/>
-      <c r="U65" s="33"/>
-      <c r="V65" s="33"/>
-      <c r="W65" s="33"/>
-      <c r="X65" s="34"/>
+      <c r="N65" s="40"/>
+      <c r="O65" s="40"/>
+      <c r="P65" s="40"/>
+      <c r="Q65" s="40"/>
+      <c r="R65" s="40"/>
+      <c r="S65" s="40"/>
+      <c r="T65" s="40"/>
+      <c r="U65" s="40"/>
+      <c r="V65" s="40"/>
+      <c r="W65" s="40"/>
+      <c r="X65" s="41"/>
     </row>
     <row r="66" spans="11:24" x14ac:dyDescent="0.3">
-      <c r="K66" s="27" t="s">
+      <c r="K66" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="L66" s="28"/>
-      <c r="M66" s="33" t="s">
+      <c r="L66" s="31"/>
+      <c r="M66" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="N66" s="33"/>
-      <c r="O66" s="33"/>
-      <c r="P66" s="33"/>
-      <c r="Q66" s="33"/>
-      <c r="R66" s="33"/>
-      <c r="S66" s="33"/>
-      <c r="T66" s="33"/>
-      <c r="U66" s="33"/>
-      <c r="V66" s="33"/>
-      <c r="W66" s="33"/>
-      <c r="X66" s="34"/>
+      <c r="N66" s="40"/>
+      <c r="O66" s="40"/>
+      <c r="P66" s="40"/>
+      <c r="Q66" s="40"/>
+      <c r="R66" s="40"/>
+      <c r="S66" s="40"/>
+      <c r="T66" s="40"/>
+      <c r="U66" s="40"/>
+      <c r="V66" s="40"/>
+      <c r="W66" s="40"/>
+      <c r="X66" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="252">
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="M47:X48"/>
+    <mergeCell ref="M49:X51"/>
+    <mergeCell ref="M52:X52"/>
+    <mergeCell ref="M53:X55"/>
+    <mergeCell ref="M56:X57"/>
+    <mergeCell ref="M58:X58"/>
+    <mergeCell ref="M59:X59"/>
+    <mergeCell ref="M60:X60"/>
+    <mergeCell ref="M66:X66"/>
+    <mergeCell ref="M61:X62"/>
+    <mergeCell ref="M63:X63"/>
+    <mergeCell ref="M64:X64"/>
+    <mergeCell ref="M65:X65"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="F1:G2"/>
+    <mergeCell ref="H1:I2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:E25"/>
+    <mergeCell ref="F24:G25"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H24:I25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:C46"/>
+    <mergeCell ref="D45:E46"/>
+    <mergeCell ref="F45:G46"/>
+    <mergeCell ref="H45:I46"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F56:G56"/>
     <mergeCell ref="B63:C63"/>
     <mergeCell ref="D63:E63"/>
     <mergeCell ref="F63:G63"/>
@@ -16736,223 +17084,17 @@
     <mergeCell ref="F60:G60"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="D57:E57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:C46"/>
-    <mergeCell ref="D45:E46"/>
-    <mergeCell ref="F45:G46"/>
-    <mergeCell ref="H45:I46"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H24:I25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:E25"/>
-    <mergeCell ref="F24:G25"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="D1:E2"/>
-    <mergeCell ref="F1:G2"/>
-    <mergeCell ref="H1:I2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="M47:X48"/>
-    <mergeCell ref="M49:X51"/>
-    <mergeCell ref="M52:X52"/>
-    <mergeCell ref="M53:X55"/>
-    <mergeCell ref="M56:X57"/>
-    <mergeCell ref="M58:X58"/>
-    <mergeCell ref="M59:X59"/>
-    <mergeCell ref="M60:X60"/>
-    <mergeCell ref="M66:X66"/>
-    <mergeCell ref="M61:X62"/>
-    <mergeCell ref="M63:X63"/>
-    <mergeCell ref="M64:X64"/>
-    <mergeCell ref="M65:X65"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="H57:I57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16988,30 +17130,30 @@
       <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46" t="s">
+      <c r="H1" s="21"/>
+      <c r="I1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46" t="s">
+      <c r="J1" s="21"/>
+      <c r="K1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46" t="s">
+      <c r="L1" s="21"/>
+      <c r="M1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46" t="s">
+      <c r="N1" s="21"/>
+      <c r="O1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46" t="s">
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="46"/>
+      <c r="R1" s="21"/>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.3">
       <c r="G2" s="54" t="s">
@@ -17043,30 +17185,30 @@
       <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46" t="s">
+      <c r="H3" s="21"/>
+      <c r="I3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46" t="s">
+      <c r="J3" s="21"/>
+      <c r="K3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46" t="s">
+      <c r="L3" s="21"/>
+      <c r="M3" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46" t="s">
+      <c r="N3" s="21"/>
+      <c r="O3" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46" t="s">
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="R3" s="46"/>
+      <c r="R3" s="21"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="G4" t="s">
@@ -20450,12 +20592,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:L3"/>
@@ -20464,6 +20600,12 @@
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="M3:N3"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Muscle enzyme stats summary.xlsx
+++ b/Muscle enzyme stats summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mcmasteru365-my.sharepoint.com/personal/garree2_mcmaster_ca/Documents/MSc documents/MSc R stuff/TeamDeerMouse2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3216" documentId="8_{007E6532-BBA8-40E2-86B1-B300A58E7FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97700395-0C07-4B82-AF23-35FC18AE2308}"/>
+  <xr:revisionPtr revIDLastSave="3277" documentId="8_{007E6532-BBA8-40E2-86B1-B300A58E7FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90C755C5-62DB-4B68-9BB7-47DE7DB8956B}"/>
   <bookViews>
-    <workbookView xWindow="6660" yWindow="60" windowWidth="13692" windowHeight="11112" activeTab="1" xr2:uid="{552A0E64-C64A-4B8B-8A72-60951C1B8927}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{552A0E64-C64A-4B8B-8A72-60951C1B8927}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats summary (good copy)" sheetId="3" r:id="rId1"/>
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="202">
   <si>
     <t xml:space="preserve">Muscle </t>
   </si>
@@ -678,12 +678,6 @@
     <t>Top 10 Variables and their contributions to PC1 and PC2</t>
   </si>
   <si>
-    <t>Contrib. PC1</t>
-  </si>
-  <si>
-    <t>Contrib. PC2</t>
-  </si>
-  <si>
     <t>hoadglutmax</t>
   </si>
   <si>
@@ -743,12 +737,27 @@
   <si>
     <t>ldhta</t>
   </si>
+  <si>
+    <t xml:space="preserve">Variable </t>
+  </si>
+  <si>
+    <t>% Contrib. PC1</t>
+  </si>
+  <si>
+    <t>% Contrib. PC2</t>
+  </si>
+  <si>
+    <t>I would suggest you instead use the vegan package using the rda function to build your PCA, as this package has the ordihull function that can produce your group centroids - here is a tutorial. The documentation for ordihull is a little clearer than the factoextra package from what I can see and details that the ellipsoid is defined by a 95% confidence interval and you can manually change this if desired. The second reason I point you to vegan is the adonis2 function (don't use adonis, it is deprecated). This allows you to carry out a permutational multivariate analysis of variance (PERMANOVA) that will allow you to test if the two group centroids are statistically different from one another. Essentially this test will take your PCA object and then allow you to test whether the two groups are statistically different in n-dimensional space (i.e. do their traits differ). It does carry with it the assumption of homogeneity of multivariate dispersions, which is analogous to the equality of variance assumption that (univariate) linear models holds; you can test this using the vegan::betadisper function. The data you showed likely violates this assumption though and probably aren't different as you pointed out...</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="171" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -776,8 +785,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF232629"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -841,6 +863,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF8585"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -989,7 +1017,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1017,37 +1045,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1060,6 +1061,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1110,16 +1117,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1479,9 +1516,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEC4BBFB-1F47-4F42-82E8-48C18D6873D8}">
   <dimension ref="A1:DG260"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="87" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="87" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U29" sqref="U29"/>
+      <selection pane="bottomLeft" activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12132,20 +12169,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D40758C-E7D9-48C2-9004-9B7BB4406C8B}">
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="11" max="11" width="10.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" customWidth="1"/>
     <col min="12" max="12" width="14.6640625" customWidth="1"/>
     <col min="13" max="13" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>91</v>
       </c>
@@ -12197,7 +12234,7 @@
       </c>
       <c r="U1" s="20"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -12257,7 +12294,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>101</v>
       </c>
@@ -12317,7 +12354,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -12375,7 +12412,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>105</v>
       </c>
@@ -12433,7 +12470,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -12462,7 +12499,7 @@
         <v>4.4459999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>108</v>
       </c>
@@ -12491,7 +12528,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>109</v>
       </c>
@@ -12522,8 +12559,19 @@
       <c r="K8" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="Q8" s="58" t="s">
+        <v>201</v>
+      </c>
+      <c r="R8" s="58"/>
+      <c r="S8" s="58"/>
+      <c r="T8" s="58"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>110</v>
       </c>
@@ -12552,13 +12600,25 @@
         <v>0.36699999999999999</v>
       </c>
       <c r="K9" t="s">
-        <v>178</v>
-      </c>
-      <c r="L9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="L9" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>113</v>
       </c>
@@ -12586,14 +12646,23 @@
       <c r="I10">
         <v>2.073</v>
       </c>
-      <c r="K10" t="s">
-        <v>180</v>
-      </c>
-      <c r="L10" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="K10" s="56" t="s">
+        <v>178</v>
+      </c>
+      <c r="L10" s="59">
+        <v>2.847051</v>
+      </c>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>115</v>
       </c>
@@ -12621,14 +12690,23 @@
       <c r="I11">
         <v>-8.8999999999999996E-2</v>
       </c>
-      <c r="K11" t="s">
-        <v>181</v>
-      </c>
-      <c r="L11" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="K11" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="L11" s="59">
+        <v>2.8023729999999998</v>
+      </c>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="58"/>
+      <c r="T11" s="58"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -12656,14 +12734,23 @@
       <c r="I12">
         <v>1.7669999999999999</v>
       </c>
-      <c r="K12" t="s">
-        <v>182</v>
-      </c>
-      <c r="L12" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="K12" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="L12" s="60">
+        <v>2.6585589999999999</v>
+      </c>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>118</v>
       </c>
@@ -12691,14 +12778,23 @@
       <c r="I13">
         <v>2.6110000000000002</v>
       </c>
-      <c r="K13" t="s">
-        <v>183</v>
-      </c>
-      <c r="L13" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="K13" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="L13" s="61">
+        <v>2.5657169999999998</v>
+      </c>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="58"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>119</v>
       </c>
@@ -12726,14 +12822,23 @@
       <c r="I14">
         <v>-1.113</v>
       </c>
-      <c r="K14" t="s">
-        <v>184</v>
-      </c>
-      <c r="L14" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="K14" s="56" t="s">
+        <v>182</v>
+      </c>
+      <c r="L14" s="62">
+        <v>2.5490659999999998</v>
+      </c>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="58"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="58"/>
+      <c r="Y14" s="58"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>121</v>
       </c>
@@ -12761,14 +12866,23 @@
       <c r="I15">
         <v>-0.83299999999999996</v>
       </c>
-      <c r="K15" t="s">
-        <v>185</v>
-      </c>
-      <c r="L15" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="K15" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="L15" s="62">
+        <v>2.5392700000000001</v>
+      </c>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="58"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="58"/>
+      <c r="Y15" s="58"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>122</v>
       </c>
@@ -12796,14 +12910,24 @@
       <c r="I16">
         <v>1.762</v>
       </c>
-      <c r="K16" t="s">
-        <v>186</v>
-      </c>
-      <c r="L16" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K16" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="L16" s="62">
+        <v>2.4577779999999998</v>
+      </c>
+      <c r="Q16" s="58"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="58"/>
+      <c r="T16" s="58"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="58"/>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="57"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>124</v>
       </c>
@@ -12831,14 +12955,23 @@
       <c r="I17">
         <v>3.5649999999999999</v>
       </c>
-      <c r="K17" t="s">
-        <v>187</v>
-      </c>
-      <c r="L17" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K17" s="56" t="s">
+        <v>185</v>
+      </c>
+      <c r="L17" s="62">
+        <v>2.3653240000000002</v>
+      </c>
+      <c r="Q17" s="58"/>
+      <c r="R17" s="58"/>
+      <c r="S17" s="58"/>
+      <c r="T17" s="58"/>
+      <c r="U17" s="58"/>
+      <c r="V17" s="58"/>
+      <c r="W17" s="58"/>
+      <c r="X17" s="58"/>
+      <c r="Y17" s="58"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>125</v>
       </c>
@@ -12866,14 +12999,23 @@
       <c r="I18">
         <v>2.5409999999999999</v>
       </c>
-      <c r="K18" t="s">
-        <v>188</v>
-      </c>
-      <c r="L18" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K18" s="56" t="s">
+        <v>186</v>
+      </c>
+      <c r="L18" s="55">
+        <v>2.341075</v>
+      </c>
+      <c r="Q18" s="58"/>
+      <c r="R18" s="58"/>
+      <c r="S18" s="58"/>
+      <c r="T18" s="58"/>
+      <c r="U18" s="58"/>
+      <c r="V18" s="58"/>
+      <c r="W18" s="58"/>
+      <c r="X18" s="58"/>
+      <c r="Y18" s="58"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>126</v>
       </c>
@@ -12901,14 +13043,23 @@
       <c r="I19">
         <v>-0.39200000000000002</v>
       </c>
-      <c r="K19" t="s">
-        <v>189</v>
-      </c>
-      <c r="L19" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K19" s="56" t="s">
+        <v>187</v>
+      </c>
+      <c r="L19" s="55">
+        <v>2.3117369999999999</v>
+      </c>
+      <c r="Q19" s="58"/>
+      <c r="R19" s="58"/>
+      <c r="S19" s="58"/>
+      <c r="T19" s="58"/>
+      <c r="U19" s="58"/>
+      <c r="V19" s="58"/>
+      <c r="W19" s="58"/>
+      <c r="X19" s="58"/>
+      <c r="Y19" s="58"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>127</v>
       </c>
@@ -12936,8 +13087,24 @@
       <c r="I20">
         <v>5.0739999999999998</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K20" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="M20" s="55">
+        <v>6.1053069999999998</v>
+      </c>
+      <c r="N20" s="55"/>
+      <c r="Q20" s="58"/>
+      <c r="R20" s="58"/>
+      <c r="S20" s="58"/>
+      <c r="T20" s="58"/>
+      <c r="U20" s="58"/>
+      <c r="V20" s="58"/>
+      <c r="W20" s="58"/>
+      <c r="X20" s="58"/>
+      <c r="Y20" s="58"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>128</v>
       </c>
@@ -12965,8 +13132,24 @@
       <c r="I21">
         <v>1.444</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K21" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="M21" s="55">
+        <v>5.7607299999999997</v>
+      </c>
+      <c r="N21" s="55"/>
+      <c r="Q21" s="58"/>
+      <c r="R21" s="58"/>
+      <c r="S21" s="58"/>
+      <c r="T21" s="58"/>
+      <c r="U21" s="58"/>
+      <c r="V21" s="58"/>
+      <c r="W21" s="58"/>
+      <c r="X21" s="58"/>
+      <c r="Y21" s="58"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>129</v>
       </c>
@@ -12994,8 +13177,24 @@
       <c r="I22">
         <v>-3.1</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K22" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="M22" s="55">
+        <v>3.873246</v>
+      </c>
+      <c r="N22" s="55"/>
+      <c r="Q22" s="58"/>
+      <c r="R22" s="58"/>
+      <c r="S22" s="58"/>
+      <c r="T22" s="58"/>
+      <c r="U22" s="58"/>
+      <c r="V22" s="58"/>
+      <c r="W22" s="58"/>
+      <c r="X22" s="58"/>
+      <c r="Y22" s="58"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>130</v>
       </c>
@@ -13023,8 +13222,24 @@
       <c r="I23">
         <v>-2.3889999999999998</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K23" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="M23" s="55">
+        <v>3.3593489999999999</v>
+      </c>
+      <c r="N23" s="55"/>
+      <c r="Q23" s="58"/>
+      <c r="R23" s="58"/>
+      <c r="S23" s="58"/>
+      <c r="T23" s="58"/>
+      <c r="U23" s="58"/>
+      <c r="V23" s="58"/>
+      <c r="W23" s="58"/>
+      <c r="X23" s="58"/>
+      <c r="Y23" s="58"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>131</v>
       </c>
@@ -13052,8 +13267,24 @@
       <c r="I24">
         <v>-7.431</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K24" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="M24" s="55">
+        <v>3.2588180000000002</v>
+      </c>
+      <c r="N24" s="55"/>
+      <c r="Q24" s="58"/>
+      <c r="R24" s="58"/>
+      <c r="S24" s="58"/>
+      <c r="T24" s="58"/>
+      <c r="U24" s="58"/>
+      <c r="V24" s="58"/>
+      <c r="W24" s="58"/>
+      <c r="X24" s="58"/>
+      <c r="Y24" s="58"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>132</v>
       </c>
@@ -13081,10 +13312,98 @@
       <c r="I25">
         <v>-3.754</v>
       </c>
-      <c r="M25" s="55"/>
+      <c r="K25" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="M25" s="55">
+        <v>3.2561170000000002</v>
+      </c>
+      <c r="N25" s="55"/>
+      <c r="Q25" s="58"/>
+      <c r="R25" s="58"/>
+      <c r="S25" s="58"/>
+      <c r="T25" s="58"/>
+      <c r="U25" s="58"/>
+      <c r="V25" s="58"/>
+      <c r="W25" s="58"/>
+      <c r="X25" s="58"/>
+      <c r="Y25" s="58"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="K26" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="M26" s="55">
+        <v>3.0941169999999998</v>
+      </c>
+      <c r="N26" s="55"/>
+      <c r="Q26" s="58"/>
+      <c r="R26" s="58"/>
+      <c r="S26" s="58"/>
+      <c r="T26" s="58"/>
+      <c r="U26" s="58"/>
+      <c r="V26" s="58"/>
+      <c r="W26" s="58"/>
+      <c r="X26" s="58"/>
+      <c r="Y26" s="58"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="K27" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="M27" s="55">
+        <v>3.0606300000000002</v>
+      </c>
+      <c r="N27" s="55"/>
+      <c r="Q27" s="58"/>
+      <c r="R27" s="58"/>
+      <c r="S27" s="58"/>
+      <c r="T27" s="58"/>
+      <c r="U27" s="58"/>
+      <c r="V27" s="58"/>
+      <c r="W27" s="58"/>
+      <c r="X27" s="58"/>
+      <c r="Y27" s="58"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="K28" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="M28" s="55">
+        <v>2.9046979999999998</v>
+      </c>
+      <c r="N28" s="55"/>
+      <c r="Q28" s="58"/>
+      <c r="R28" s="58"/>
+      <c r="S28" s="58"/>
+      <c r="T28" s="58"/>
+      <c r="U28" s="58"/>
+      <c r="V28" s="58"/>
+      <c r="W28" s="58"/>
+      <c r="X28" s="58"/>
+      <c r="Y28" s="58"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="K29" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="M29" s="55">
+        <v>2.7577669999999999</v>
+      </c>
+      <c r="N29" s="55"/>
+      <c r="Q29" s="58"/>
+      <c r="R29" s="58"/>
+      <c r="S29" s="58"/>
+      <c r="T29" s="58"/>
+      <c r="U29" s="58"/>
+      <c r="V29" s="58"/>
+      <c r="W29" s="58"/>
+      <c r="X29" s="58"/>
+      <c r="Y29" s="58"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="Q8:Y29"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:M1"/>
@@ -13093,7 +13412,8 @@
     <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -15651,333 +15971,333 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26" t="s">
+      <c r="E1" s="47"/>
+      <c r="F1" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26" t="s">
+      <c r="G1" s="47"/>
+      <c r="H1" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="26"/>
+      <c r="I1" s="47"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="23" t="s">
+      <c r="C4" s="49"/>
+      <c r="D4" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="23" t="s">
+      <c r="E4" s="49"/>
+      <c r="F4" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="24"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="M6" s="29" t="s">
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="M6" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="N6" s="21"/>
+      <c r="N6" s="46"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="23" t="s">
+      <c r="C7" s="49"/>
+      <c r="D7" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="23" t="s">
+      <c r="E7" s="49"/>
+      <c r="F7" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="M7" s="29" t="s">
+      <c r="G7" s="49"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="M7" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="N7" s="21"/>
+      <c r="N7" s="46"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="23" t="s">
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="23" t="s">
+      <c r="E8" s="49"/>
+      <c r="F8" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="M8" s="29" t="s">
+      <c r="G8" s="49"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="M8" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="N8" s="21"/>
+      <c r="N8" s="46"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="23" t="s">
+      <c r="C10" s="49"/>
+      <c r="D10" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="23" t="s">
+      <c r="C13" s="49"/>
+      <c r="D13" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="27" t="s">
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="28"/>
-      <c r="H19" s="27" t="s">
+      <c r="G19" s="51"/>
+      <c r="H19" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="I19" s="28"/>
+      <c r="I19" s="51"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26" t="s">
+      <c r="C24" s="47"/>
+      <c r="D24" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26" t="s">
+      <c r="E24" s="47"/>
+      <c r="F24" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26" t="s">
+      <c r="G24" s="47"/>
+      <c r="H24" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="I24" s="26"/>
+      <c r="I24" s="47"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -15989,38 +16309,38 @@
       <c r="C26" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -16032,122 +16352,122 @@
       <c r="C29" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="28"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="53"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
@@ -16159,104 +16479,104 @@
       <c r="C38" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>58</v>
       </c>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="24" t="s">
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="E41" s="24"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>59</v>
       </c>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="23" t="s">
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="E42" s="24"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="22"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="53"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B45" s="26" t="s">
+      <c r="B45" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26" t="s">
+      <c r="C45" s="47"/>
+      <c r="D45" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26" t="s">
+      <c r="E45" s="47"/>
+      <c r="F45" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26" t="s">
+      <c r="G45" s="47"/>
+      <c r="H45" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="I45" s="26"/>
-      <c r="L45" s="26" t="s">
+      <c r="I45" s="47"/>
+      <c r="L45" s="47" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A46" s="26"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="L46" s="26"/>
+      <c r="A46" s="47"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="L46" s="47"/>
     </row>
     <row r="47" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
@@ -16268,590 +16588,800 @@
       <c r="C47" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="K47" s="48" t="s">
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
+      <c r="K47" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="L47" s="49"/>
-      <c r="M47" s="36" t="s">
+      <c r="L47" s="42"/>
+      <c r="M47" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="N47" s="37"/>
-      <c r="O47" s="37"/>
-      <c r="P47" s="37"/>
-      <c r="Q47" s="37"/>
-      <c r="R47" s="37"/>
-      <c r="S47" s="37"/>
-      <c r="T47" s="37"/>
-      <c r="U47" s="37"/>
-      <c r="V47" s="37"/>
-      <c r="W47" s="37"/>
-      <c r="X47" s="38"/>
+      <c r="N47" s="30"/>
+      <c r="O47" s="30"/>
+      <c r="P47" s="30"/>
+      <c r="Q47" s="30"/>
+      <c r="R47" s="30"/>
+      <c r="S47" s="30"/>
+      <c r="T47" s="30"/>
+      <c r="U47" s="30"/>
+      <c r="V47" s="30"/>
+      <c r="W47" s="30"/>
+      <c r="X47" s="31"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="25"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-      <c r="K48" s="50" t="s">
+      <c r="B48" s="52"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="46"/>
+      <c r="K48" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="L48" s="51"/>
-      <c r="M48" s="39"/>
-      <c r="N48" s="40"/>
-      <c r="O48" s="40"/>
-      <c r="P48" s="40"/>
-      <c r="Q48" s="40"/>
-      <c r="R48" s="40"/>
-      <c r="S48" s="40"/>
-      <c r="T48" s="40"/>
-      <c r="U48" s="40"/>
-      <c r="V48" s="40"/>
-      <c r="W48" s="40"/>
-      <c r="X48" s="41"/>
+      <c r="L48" s="44"/>
+      <c r="M48" s="32"/>
+      <c r="N48" s="33"/>
+      <c r="O48" s="33"/>
+      <c r="P48" s="33"/>
+      <c r="Q48" s="33"/>
+      <c r="R48" s="33"/>
+      <c r="S48" s="33"/>
+      <c r="T48" s="33"/>
+      <c r="U48" s="33"/>
+      <c r="V48" s="33"/>
+      <c r="W48" s="33"/>
+      <c r="X48" s="34"/>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>41</v>
       </c>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="K49" s="32" t="s">
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="46"/>
+      <c r="K49" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="L49" s="33"/>
-      <c r="M49" s="36" t="s">
+      <c r="L49" s="24"/>
+      <c r="M49" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="N49" s="37"/>
-      <c r="O49" s="37"/>
-      <c r="P49" s="37"/>
-      <c r="Q49" s="37"/>
-      <c r="R49" s="37"/>
-      <c r="S49" s="37"/>
-      <c r="T49" s="37"/>
-      <c r="U49" s="37"/>
-      <c r="V49" s="37"/>
-      <c r="W49" s="37"/>
-      <c r="X49" s="38"/>
+      <c r="N49" s="30"/>
+      <c r="O49" s="30"/>
+      <c r="P49" s="30"/>
+      <c r="Q49" s="30"/>
+      <c r="R49" s="30"/>
+      <c r="S49" s="30"/>
+      <c r="T49" s="30"/>
+      <c r="U49" s="30"/>
+      <c r="V49" s="30"/>
+      <c r="W49" s="30"/>
+      <c r="X49" s="31"/>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="K50" s="34" t="s">
+      <c r="B50" s="53"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
+      <c r="K50" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="L50" s="35"/>
-      <c r="M50" s="42"/>
-      <c r="N50" s="43"/>
-      <c r="O50" s="43"/>
-      <c r="P50" s="43"/>
-      <c r="Q50" s="43"/>
-      <c r="R50" s="43"/>
-      <c r="S50" s="43"/>
-      <c r="T50" s="43"/>
-      <c r="U50" s="43"/>
-      <c r="V50" s="43"/>
-      <c r="W50" s="43"/>
-      <c r="X50" s="44"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="35"/>
+      <c r="N50" s="36"/>
+      <c r="O50" s="36"/>
+      <c r="P50" s="36"/>
+      <c r="Q50" s="36"/>
+      <c r="R50" s="36"/>
+      <c r="S50" s="36"/>
+      <c r="T50" s="36"/>
+      <c r="U50" s="36"/>
+      <c r="V50" s="36"/>
+      <c r="W50" s="36"/>
+      <c r="X50" s="37"/>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="25"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="K51" s="30" t="s">
+      <c r="B51" s="52"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="46"/>
+      <c r="K51" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="L51" s="31"/>
-      <c r="M51" s="39"/>
-      <c r="N51" s="40"/>
-      <c r="O51" s="40"/>
-      <c r="P51" s="40"/>
-      <c r="Q51" s="40"/>
-      <c r="R51" s="40"/>
-      <c r="S51" s="40"/>
-      <c r="T51" s="40"/>
-      <c r="U51" s="40"/>
-      <c r="V51" s="40"/>
-      <c r="W51" s="40"/>
-      <c r="X51" s="41"/>
+      <c r="L51" s="28"/>
+      <c r="M51" s="32"/>
+      <c r="N51" s="33"/>
+      <c r="O51" s="33"/>
+      <c r="P51" s="33"/>
+      <c r="Q51" s="33"/>
+      <c r="R51" s="33"/>
+      <c r="S51" s="33"/>
+      <c r="T51" s="33"/>
+      <c r="U51" s="33"/>
+      <c r="V51" s="33"/>
+      <c r="W51" s="33"/>
+      <c r="X51" s="34"/>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>33</v>
       </c>
-      <c r="B52" s="25"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="K52" s="52" t="s">
+      <c r="B52" s="52"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="46"/>
+      <c r="K52" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="L52" s="53"/>
-      <c r="M52" s="45" t="s">
+      <c r="L52" s="22"/>
+      <c r="M52" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="N52" s="46"/>
-      <c r="O52" s="46"/>
-      <c r="P52" s="46"/>
-      <c r="Q52" s="46"/>
-      <c r="R52" s="46"/>
-      <c r="S52" s="46"/>
-      <c r="T52" s="46"/>
-      <c r="U52" s="46"/>
-      <c r="V52" s="46"/>
-      <c r="W52" s="46"/>
-      <c r="X52" s="47"/>
+      <c r="N52" s="39"/>
+      <c r="O52" s="39"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="39"/>
+      <c r="R52" s="39"/>
+      <c r="S52" s="39"/>
+      <c r="T52" s="39"/>
+      <c r="U52" s="39"/>
+      <c r="V52" s="39"/>
+      <c r="W52" s="39"/>
+      <c r="X52" s="40"/>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>43</v>
       </c>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="K53" s="32" t="s">
+      <c r="B53" s="53"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="46"/>
+      <c r="K53" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="L53" s="33"/>
-      <c r="M53" s="36" t="s">
+      <c r="L53" s="24"/>
+      <c r="M53" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="N53" s="37"/>
-      <c r="O53" s="37"/>
-      <c r="P53" s="37"/>
-      <c r="Q53" s="37"/>
-      <c r="R53" s="37"/>
-      <c r="S53" s="37"/>
-      <c r="T53" s="37"/>
-      <c r="U53" s="37"/>
-      <c r="V53" s="37"/>
-      <c r="W53" s="37"/>
-      <c r="X53" s="38"/>
+      <c r="N53" s="30"/>
+      <c r="O53" s="30"/>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="30"/>
+      <c r="R53" s="30"/>
+      <c r="S53" s="30"/>
+      <c r="T53" s="30"/>
+      <c r="U53" s="30"/>
+      <c r="V53" s="30"/>
+      <c r="W53" s="30"/>
+      <c r="X53" s="31"/>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="23" t="s">
+      <c r="B54" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C54" s="24"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="21"/>
-      <c r="K54" s="34" t="s">
+      <c r="C54" s="49"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="46"/>
+      <c r="K54" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="L54" s="35"/>
-      <c r="M54" s="42"/>
-      <c r="N54" s="43"/>
-      <c r="O54" s="43"/>
-      <c r="P54" s="43"/>
-      <c r="Q54" s="43"/>
-      <c r="R54" s="43"/>
-      <c r="S54" s="43"/>
-      <c r="T54" s="43"/>
-      <c r="U54" s="43"/>
-      <c r="V54" s="43"/>
-      <c r="W54" s="43"/>
-      <c r="X54" s="44"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="35"/>
+      <c r="N54" s="36"/>
+      <c r="O54" s="36"/>
+      <c r="P54" s="36"/>
+      <c r="Q54" s="36"/>
+      <c r="R54" s="36"/>
+      <c r="S54" s="36"/>
+      <c r="T54" s="36"/>
+      <c r="U54" s="36"/>
+      <c r="V54" s="36"/>
+      <c r="W54" s="36"/>
+      <c r="X54" s="37"/>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>37</v>
       </c>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
-      <c r="K55" s="30" t="s">
+      <c r="B55" s="53"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="53"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="46"/>
+      <c r="K55" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="L55" s="31"/>
-      <c r="M55" s="39"/>
-      <c r="N55" s="40"/>
-      <c r="O55" s="40"/>
-      <c r="P55" s="40"/>
-      <c r="Q55" s="40"/>
-      <c r="R55" s="40"/>
-      <c r="S55" s="40"/>
-      <c r="T55" s="40"/>
-      <c r="U55" s="40"/>
-      <c r="V55" s="40"/>
-      <c r="W55" s="40"/>
-      <c r="X55" s="41"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="32"/>
+      <c r="N55" s="33"/>
+      <c r="O55" s="33"/>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="33"/>
+      <c r="S55" s="33"/>
+      <c r="T55" s="33"/>
+      <c r="U55" s="33"/>
+      <c r="V55" s="33"/>
+      <c r="W55" s="33"/>
+      <c r="X55" s="34"/>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>32</v>
       </c>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
-      <c r="K56" s="32" t="s">
+      <c r="B56" s="53"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="46"/>
+      <c r="K56" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="L56" s="33"/>
-      <c r="M56" s="36" t="s">
+      <c r="L56" s="24"/>
+      <c r="M56" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="N56" s="37"/>
-      <c r="O56" s="37"/>
-      <c r="P56" s="37"/>
-      <c r="Q56" s="37"/>
-      <c r="R56" s="37"/>
-      <c r="S56" s="37"/>
-      <c r="T56" s="37"/>
-      <c r="U56" s="37"/>
-      <c r="V56" s="37"/>
-      <c r="W56" s="37"/>
-      <c r="X56" s="38"/>
+      <c r="N56" s="30"/>
+      <c r="O56" s="30"/>
+      <c r="P56" s="30"/>
+      <c r="Q56" s="30"/>
+      <c r="R56" s="30"/>
+      <c r="S56" s="30"/>
+      <c r="T56" s="30"/>
+      <c r="U56" s="30"/>
+      <c r="V56" s="30"/>
+      <c r="W56" s="30"/>
+      <c r="X56" s="31"/>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="21"/>
-      <c r="K57" s="30" t="s">
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="46"/>
+      <c r="K57" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="L57" s="31"/>
-      <c r="M57" s="39"/>
-      <c r="N57" s="40"/>
-      <c r="O57" s="40"/>
-      <c r="P57" s="40"/>
-      <c r="Q57" s="40"/>
-      <c r="R57" s="40"/>
-      <c r="S57" s="40"/>
-      <c r="T57" s="40"/>
-      <c r="U57" s="40"/>
-      <c r="V57" s="40"/>
-      <c r="W57" s="40"/>
-      <c r="X57" s="41"/>
+      <c r="L57" s="28"/>
+      <c r="M57" s="32"/>
+      <c r="N57" s="33"/>
+      <c r="O57" s="33"/>
+      <c r="P57" s="33"/>
+      <c r="Q57" s="33"/>
+      <c r="R57" s="33"/>
+      <c r="S57" s="33"/>
+      <c r="T57" s="33"/>
+      <c r="U57" s="33"/>
+      <c r="V57" s="33"/>
+      <c r="W57" s="33"/>
+      <c r="X57" s="34"/>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>4</v>
       </c>
-      <c r="B58" s="23" t="s">
+      <c r="B58" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C58" s="24"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="21"/>
-      <c r="K58" s="52" t="s">
+      <c r="C58" s="49"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="46"/>
+      <c r="K58" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="L58" s="53"/>
-      <c r="M58" s="39" t="s">
+      <c r="L58" s="22"/>
+      <c r="M58" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="N58" s="40"/>
-      <c r="O58" s="40"/>
-      <c r="P58" s="40"/>
-      <c r="Q58" s="40"/>
-      <c r="R58" s="40"/>
-      <c r="S58" s="40"/>
-      <c r="T58" s="40"/>
-      <c r="U58" s="40"/>
-      <c r="V58" s="40"/>
-      <c r="W58" s="40"/>
-      <c r="X58" s="41"/>
+      <c r="N58" s="33"/>
+      <c r="O58" s="33"/>
+      <c r="P58" s="33"/>
+      <c r="Q58" s="33"/>
+      <c r="R58" s="33"/>
+      <c r="S58" s="33"/>
+      <c r="T58" s="33"/>
+      <c r="U58" s="33"/>
+      <c r="V58" s="33"/>
+      <c r="W58" s="33"/>
+      <c r="X58" s="34"/>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>55</v>
       </c>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="21"/>
-      <c r="K59" s="32" t="s">
+      <c r="B59" s="53"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="53"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
+      <c r="K59" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="L59" s="33"/>
-      <c r="M59" s="36" t="s">
+      <c r="L59" s="24"/>
+      <c r="M59" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="N59" s="37"/>
-      <c r="O59" s="37"/>
-      <c r="P59" s="37"/>
-      <c r="Q59" s="37"/>
-      <c r="R59" s="37"/>
-      <c r="S59" s="37"/>
-      <c r="T59" s="37"/>
-      <c r="U59" s="37"/>
-      <c r="V59" s="37"/>
-      <c r="W59" s="37"/>
-      <c r="X59" s="38"/>
+      <c r="N59" s="30"/>
+      <c r="O59" s="30"/>
+      <c r="P59" s="30"/>
+      <c r="Q59" s="30"/>
+      <c r="R59" s="30"/>
+      <c r="S59" s="30"/>
+      <c r="T59" s="30"/>
+      <c r="U59" s="30"/>
+      <c r="V59" s="30"/>
+      <c r="W59" s="30"/>
+      <c r="X59" s="31"/>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>56</v>
       </c>
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="21"/>
-      <c r="K60" s="30" t="s">
+      <c r="B60" s="53"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="53"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="46"/>
+      <c r="K60" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="L60" s="31"/>
-      <c r="M60" s="39" t="s">
+      <c r="L60" s="28"/>
+      <c r="M60" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="N60" s="40"/>
-      <c r="O60" s="40"/>
-      <c r="P60" s="40"/>
-      <c r="Q60" s="40"/>
-      <c r="R60" s="40"/>
-      <c r="S60" s="40"/>
-      <c r="T60" s="40"/>
-      <c r="U60" s="40"/>
-      <c r="V60" s="40"/>
-      <c r="W60" s="40"/>
-      <c r="X60" s="41"/>
+      <c r="N60" s="33"/>
+      <c r="O60" s="33"/>
+      <c r="P60" s="33"/>
+      <c r="Q60" s="33"/>
+      <c r="R60" s="33"/>
+      <c r="S60" s="33"/>
+      <c r="T60" s="33"/>
+      <c r="U60" s="33"/>
+      <c r="V60" s="33"/>
+      <c r="W60" s="33"/>
+      <c r="X60" s="34"/>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>57</v>
       </c>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="21"/>
-      <c r="K61" s="32" t="s">
+      <c r="B61" s="53"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="53"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
+      <c r="K61" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="L61" s="33"/>
-      <c r="M61" s="36" t="s">
+      <c r="L61" s="24"/>
+      <c r="M61" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="N61" s="37"/>
-      <c r="O61" s="37"/>
-      <c r="P61" s="37"/>
-      <c r="Q61" s="37"/>
-      <c r="R61" s="37"/>
-      <c r="S61" s="37"/>
-      <c r="T61" s="37"/>
-      <c r="U61" s="37"/>
-      <c r="V61" s="37"/>
-      <c r="W61" s="37"/>
-      <c r="X61" s="38"/>
+      <c r="N61" s="30"/>
+      <c r="O61" s="30"/>
+      <c r="P61" s="30"/>
+      <c r="Q61" s="30"/>
+      <c r="R61" s="30"/>
+      <c r="S61" s="30"/>
+      <c r="T61" s="30"/>
+      <c r="U61" s="30"/>
+      <c r="V61" s="30"/>
+      <c r="W61" s="30"/>
+      <c r="X61" s="31"/>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>58</v>
       </c>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="21"/>
-      <c r="K62" s="30" t="s">
+      <c r="B62" s="53"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="53"/>
+      <c r="F62" s="46"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="46"/>
+      <c r="I62" s="46"/>
+      <c r="K62" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="L62" s="31"/>
-      <c r="M62" s="39"/>
-      <c r="N62" s="40"/>
-      <c r="O62" s="40"/>
-      <c r="P62" s="40"/>
-      <c r="Q62" s="40"/>
-      <c r="R62" s="40"/>
-      <c r="S62" s="40"/>
-      <c r="T62" s="40"/>
-      <c r="U62" s="40"/>
-      <c r="V62" s="40"/>
-      <c r="W62" s="40"/>
-      <c r="X62" s="41"/>
+      <c r="L62" s="28"/>
+      <c r="M62" s="32"/>
+      <c r="N62" s="33"/>
+      <c r="O62" s="33"/>
+      <c r="P62" s="33"/>
+      <c r="Q62" s="33"/>
+      <c r="R62" s="33"/>
+      <c r="S62" s="33"/>
+      <c r="T62" s="33"/>
+      <c r="U62" s="33"/>
+      <c r="V62" s="33"/>
+      <c r="W62" s="33"/>
+      <c r="X62" s="34"/>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>59</v>
       </c>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="23" t="s">
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="E63" s="24"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="22"/>
-      <c r="K63" s="32" t="s">
+      <c r="E63" s="49"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="53"/>
+      <c r="H63" s="52"/>
+      <c r="I63" s="53"/>
+      <c r="K63" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="L63" s="33"/>
-      <c r="M63" s="45" t="s">
+      <c r="L63" s="24"/>
+      <c r="M63" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="N63" s="46"/>
-      <c r="O63" s="46"/>
-      <c r="P63" s="46"/>
-      <c r="Q63" s="46"/>
-      <c r="R63" s="46"/>
-      <c r="S63" s="46"/>
-      <c r="T63" s="46"/>
-      <c r="U63" s="46"/>
-      <c r="V63" s="46"/>
-      <c r="W63" s="46"/>
-      <c r="X63" s="47"/>
+      <c r="N63" s="39"/>
+      <c r="O63" s="39"/>
+      <c r="P63" s="39"/>
+      <c r="Q63" s="39"/>
+      <c r="R63" s="39"/>
+      <c r="S63" s="39"/>
+      <c r="T63" s="39"/>
+      <c r="U63" s="39"/>
+      <c r="V63" s="39"/>
+      <c r="W63" s="39"/>
+      <c r="X63" s="40"/>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="K64" s="32" t="s">
+      <c r="K64" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="L64" s="33"/>
-      <c r="M64" s="37" t="s">
+      <c r="L64" s="24"/>
+      <c r="M64" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="N64" s="37"/>
-      <c r="O64" s="37"/>
-      <c r="P64" s="37"/>
-      <c r="Q64" s="37"/>
-      <c r="R64" s="37"/>
-      <c r="S64" s="37"/>
-      <c r="T64" s="37"/>
-      <c r="U64" s="37"/>
-      <c r="V64" s="37"/>
-      <c r="W64" s="37"/>
-      <c r="X64" s="38"/>
+      <c r="N64" s="30"/>
+      <c r="O64" s="30"/>
+      <c r="P64" s="30"/>
+      <c r="Q64" s="30"/>
+      <c r="R64" s="30"/>
+      <c r="S64" s="30"/>
+      <c r="T64" s="30"/>
+      <c r="U64" s="30"/>
+      <c r="V64" s="30"/>
+      <c r="W64" s="30"/>
+      <c r="X64" s="31"/>
     </row>
     <row r="65" spans="11:24" x14ac:dyDescent="0.3">
-      <c r="K65" s="34" t="s">
+      <c r="K65" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="L65" s="35"/>
-      <c r="M65" s="40" t="s">
+      <c r="L65" s="26"/>
+      <c r="M65" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="N65" s="40"/>
-      <c r="O65" s="40"/>
-      <c r="P65" s="40"/>
-      <c r="Q65" s="40"/>
-      <c r="R65" s="40"/>
-      <c r="S65" s="40"/>
-      <c r="T65" s="40"/>
-      <c r="U65" s="40"/>
-      <c r="V65" s="40"/>
-      <c r="W65" s="40"/>
-      <c r="X65" s="41"/>
+      <c r="N65" s="33"/>
+      <c r="O65" s="33"/>
+      <c r="P65" s="33"/>
+      <c r="Q65" s="33"/>
+      <c r="R65" s="33"/>
+      <c r="S65" s="33"/>
+      <c r="T65" s="33"/>
+      <c r="U65" s="33"/>
+      <c r="V65" s="33"/>
+      <c r="W65" s="33"/>
+      <c r="X65" s="34"/>
     </row>
     <row r="66" spans="11:24" x14ac:dyDescent="0.3">
-      <c r="K66" s="30" t="s">
+      <c r="K66" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="L66" s="31"/>
-      <c r="M66" s="40" t="s">
+      <c r="L66" s="28"/>
+      <c r="M66" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="N66" s="40"/>
-      <c r="O66" s="40"/>
-      <c r="P66" s="40"/>
-      <c r="Q66" s="40"/>
-      <c r="R66" s="40"/>
-      <c r="S66" s="40"/>
-      <c r="T66" s="40"/>
-      <c r="U66" s="40"/>
-      <c r="V66" s="40"/>
-      <c r="W66" s="40"/>
-      <c r="X66" s="41"/>
+      <c r="N66" s="33"/>
+      <c r="O66" s="33"/>
+      <c r="P66" s="33"/>
+      <c r="Q66" s="33"/>
+      <c r="R66" s="33"/>
+      <c r="S66" s="33"/>
+      <c r="T66" s="33"/>
+      <c r="U66" s="33"/>
+      <c r="V66" s="33"/>
+      <c r="W66" s="33"/>
+      <c r="X66" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="252">
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:C46"/>
+    <mergeCell ref="D45:E46"/>
+    <mergeCell ref="F45:G46"/>
+    <mergeCell ref="H45:I46"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H24:I25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:E25"/>
+    <mergeCell ref="F24:G25"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="F1:G2"/>
+    <mergeCell ref="H1:I2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="K66:L66"/>
     <mergeCell ref="K61:L61"/>
     <mergeCell ref="K62:L62"/>
@@ -16876,225 +17406,15 @@
     <mergeCell ref="K49:L49"/>
     <mergeCell ref="K50:L50"/>
     <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="D1:E2"/>
-    <mergeCell ref="F1:G2"/>
-    <mergeCell ref="H1:I2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:E25"/>
-    <mergeCell ref="F24:G25"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H24:I25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:C46"/>
-    <mergeCell ref="D45:E46"/>
-    <mergeCell ref="F45:G46"/>
-    <mergeCell ref="H45:I46"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="K60:L60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17130,30 +17450,30 @@
       <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21" t="s">
+      <c r="J1" s="46"/>
+      <c r="K1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21" t="s">
+      <c r="L1" s="46"/>
+      <c r="M1" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21" t="s">
+      <c r="N1" s="46"/>
+      <c r="O1" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21" t="s">
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="21"/>
+      <c r="R1" s="46"/>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.3">
       <c r="G2" s="54" t="s">
@@ -17185,30 +17505,30 @@
       <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21" t="s">
+      <c r="H3" s="46"/>
+      <c r="I3" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21" t="s">
+      <c r="J3" s="46"/>
+      <c r="K3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21" t="s">
+      <c r="L3" s="46"/>
+      <c r="M3" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21" t="s">
+      <c r="N3" s="46"/>
+      <c r="O3" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21" t="s">
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="R3" s="21"/>
+      <c r="R3" s="46"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="G4" t="s">
@@ -20592,6 +20912,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:L3"/>
@@ -20600,12 +20926,6 @@
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="M3:N3"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
